--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailc\Documents\coronavirus_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailc\Documents\coronavirus_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC683C2E-EF55-4A70-9A27-7AEBAD6BA31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD2DA8F-9EE0-4353-8FB4-E8A666BD9D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,24 +1109,9 @@
     <t>end_date_n</t>
   </si>
   <si>
-    <t>Мера, предпринятая государством. n обозначает порядковый номер меры даже если она была одна. Порядковый номер в данном случае не важен, поскольку определяется столбцом start_date_n, где n соответствует по номеру.</t>
-  </si>
-  <si>
-    <t>Дата начала действия measure_n.</t>
-  </si>
-  <si>
-    <t>Дата фактического окончания measure_n.</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>Ссылка (URL) на источник (желательно государственный портал или общепризнанный источник доподлинных новостей) о measure_n, start_date_n и end_date_n</t>
-  </si>
-  <si>
-    <t>Записывается в формате yyyy-mm-dd.</t>
-  </si>
-  <si>
     <t>start_date_01</t>
   </si>
   <si>
@@ -1214,21 +1199,6 @@
     <t>end_date_10</t>
   </si>
   <si>
-    <t>ID страны по кодировке V-Dem (для объединения с их данными)</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке Correlates of War (для объединения с разными датасетами)</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке V-Dem/ISO (в большинстве случаев) - для объединения с разными датасетами.</t>
-  </si>
-  <si>
-    <t>Название страны по кодировке V-Dem</t>
-  </si>
-  <si>
-    <t>Если источников несколько, то они записываются через точку с запятой.</t>
-  </si>
-  <si>
     <t>measure_11</t>
   </si>
   <si>
@@ -1238,12 +1208,6 @@
     <t>end_date_11</t>
   </si>
   <si>
-    <t>Записывается в формате yyyy-mm-dd. Если дата не известна, то ничего не писать в ячейке.</t>
-  </si>
-  <si>
-    <t>Если в каких-то регионах вводили карантин в школах или университетах в разное время, то писать дату начала отмены занятий в учреждениях</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -1256,7 +1220,43 @@
     <t>end_date_12</t>
   </si>
   <si>
-    <t>1) Ограничение на въезд и/или выезд ряда лиц (в т.ч. иностранных граждан или отмена рейсов); 2) Запрет на въезд и/или выезд любых граждан (своих и чужих); 3) ограничение количества собравшихся в общественных местах; 4) централизованное частичное или полное закрытие учебных заведений; 5) закрытие государственных учреждений (не образовательных); 6) комендантский час, карантин в отдельном регионе; 7) чрезвычайное положение в одном или ряде регионе или населённых пунктов; 8) чрезвычайное положение в стране; 9) запрет на собрания; 10) ограничение на ведение частного бизнеса (клубы, бары, рестораны и другие досуговые места); 11) карантин в стране вне зависимости от региона; 12) ограничение передвижения внутри страны.</t>
+    <t>1) Limitations on the entry to/departure from country for a number of people (including foreighners or cancellation of the flights); 2) Ban on the entry to/departure from country of all people with exception of emergency flights; 3) Limit on the number of people that can gather in the streets; 4) Centralised partial or full shitdown of education establishements; 5) Shutdown of government offices (not educational); 6) curfew or quarantine in one or several subnational administrative units or settlements; 7) Emergency in one or several subnational administrative units or settlements; 8) National emergency; 9) Ban on all gatherings in the streets; 10) Limits on the operation of the private business (clubs, barss, restaurants, and other places of leisure); 11) National quarantine; 12) Limitations on the movement within the country.</t>
+  </si>
+  <si>
+    <t>Format: yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Format: yyyy-mm-dd. Do not code anything if the date is not known.</t>
+  </si>
+  <si>
+    <t>Separate several sources with ;</t>
+  </si>
+  <si>
+    <t>URL to the source (preferrably government website or well-known source of non-fake news about measure_n, start_date_n, and end_date_n</t>
+  </si>
+  <si>
+    <t>country ID according to V-Dem Institute</t>
+  </si>
+  <si>
+    <t>country ID according to the Correlates of War</t>
+  </si>
+  <si>
+    <t>country ID according to V-Dem/ISO (in most cases)</t>
+  </si>
+  <si>
+    <t>country name according to V-Dem</t>
+  </si>
+  <si>
+    <t>Measure taken by national or regional government. _n is just a number. The rank does not matter because the data will be sorted in the code anyways (sorted by start_date_n).</t>
+  </si>
+  <si>
+    <t>Date of the start of measure_n.</t>
+  </si>
+  <si>
+    <t>Date of factual end of measure_n.</t>
+  </si>
+  <si>
+    <t>If in some regions/settlements the date of school/university shutdown is different, code the earliest one.</t>
   </si>
 </sst>
 </file>
@@ -2185,115 +2185,115 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>357</v>
       </c>
       <c r="G1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" t="s">
         <v>367</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>368</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>369</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>370</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>371</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>372</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>373</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>374</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>375</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>377</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>378</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>379</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>380</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>381</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>382</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>383</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>384</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>385</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>386</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>387</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>388</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>389</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>390</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>391</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>392</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>393</v>
       </c>
-      <c r="AH1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>395</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>407</v>
-      </c>
       <c r="AN1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AO1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
@@ -4783,7 +4783,7 @@
         <v>356</v>
       </c>
       <c r="D1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -4791,13 +4791,13 @@
         <v>358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -4805,58 +4805,58 @@
         <v>359</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>360</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C8"/>
     </row>
@@ -4865,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C9"/>
     </row>
